--- a/v2/baliser test.xlsx
+++ b/v2/baliser test.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="24" documentId="11_60CEF4E870F97283D31417BB8394DB7E798EC44B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6CF50F96-7B8A-4DF1-A916-2DFD58BF71D0}"/>
   <bookViews>
-    <workbookView xWindow="9135" yWindow="2055" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="645" windowWidth="17280" windowHeight="9030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balisegrupper" sheetId="1" r:id="rId1"/>
@@ -271,14 +271,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -636,9 +629,9 @@
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +675,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
@@ -728,7 +721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -773,7 +766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -819,7 +812,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -865,7 +858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -910,7 +903,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -956,7 +949,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1001,7 +994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1047,7 +1040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -1092,7 +1085,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1138,7 +1131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
@@ -1183,7 +1176,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
@@ -1229,7 +1222,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -1274,7 +1267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -1320,7 +1313,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>14</v>
       </c>
@@ -1365,7 +1358,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -1411,7 +1404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>14</v>
       </c>
@@ -1456,7 +1449,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>14</v>
       </c>
@@ -1502,7 +1495,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1548,7 +1541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>22</v>
       </c>
@@ -1593,7 +1586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
@@ -1639,7 +1632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>22</v>
       </c>
@@ -1684,7 +1677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -1730,7 +1723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -1775,7 +1768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -1821,7 +1814,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -1866,7 +1859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>22</v>
       </c>
@@ -1912,7 +1905,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -1957,7 +1950,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>22</v>
       </c>
@@ -2003,7 +1996,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
@@ -2048,7 +2041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>22</v>
       </c>
@@ -2094,7 +2087,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>22</v>
       </c>
@@ -2139,7 +2132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>22</v>
       </c>
@@ -2185,7 +2178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>22</v>
       </c>
@@ -2230,7 +2223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>22</v>
       </c>
@@ -2278,10 +2271,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J1:L1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>","</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text=",">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text=",">
       <formula>NOT(ISERROR(SEARCH(",",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
